--- a/biology/Origine et évolution du vivant/Myxozoa_(classification_phylogénétique)/Myxozoa_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Myxozoa_(classification_phylogénétique)/Myxozoa_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myxozoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Myxozoa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente un arbre phylogénétique des Myxozoa (Myxozoaires), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Myxozoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Myxozoa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -557,7 +571,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Myxozoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Myxozoa_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,12 +591,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-Eva Jiménez-Guri, Hervé Philippe, Beth Okamura et Peter W. H. Holland : « Buddenbrockia Is a Cnidarian Worm », Science, vol. 317, 2007, pp. 116-118
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Eva Jiménez-Guri, Hervé Philippe, Beth Okamura et Peter W. H. Holland : « Buddenbrockia Is a Cnidarian Worm », Science, vol. 317, 2007, pp. 116-118
 C.M. Whipps, G. Grossel, R.D. Adlard, H. Yokoyama, M.S. Bryant, B.L. Munday et M.L. Kent : « Phylogeny of the Multivalvulidae (Myxozoa: Myxosporea) based upon comparative rDNA sequence analysis », Journal of Parasitology, vol. 90, n°3, 2004, pp. 618–622
-Jan Zrzavý : « The interrelationships of metazoan parasites: a review of phylum- and higher-level hypotheses from recent morphological and molecular phylogenetic analyses », Folia parasitologica, vol. 48, 2001, pp. 81-103
-Liens internes
-Le vivant (classification phylogénétique)
+Jan Zrzavý : « The interrelationships of metazoan parasites: a review of phylum- and higher-level hypotheses from recent morphological and molecular phylogenetic analyses », Folia parasitologica, vol. 48, 2001, pp. 81-103</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Myxozoa_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myxozoa_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
 Opisthokonta (classification phylogénétique)
 Metazoa (classification phylogénétique)
